--- a/data/trans_camb/P12_3_R-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P12_3_R-Dificultad-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>5.112052582694895</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>11.34140124811165</v>
+        <v>11.34140124811166</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>4.575304674171911</v>
@@ -664,7 +664,7 @@
         <v>4.498622090602524</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>11.52881081297707</v>
+        <v>11.52881081297708</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8158145592017538</v>
+        <v>0.8217166708252172</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.518049158253357</v>
+        <v>1.42231520483258</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8.101458312022359</v>
+        <v>8.166570804211972</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.879721368022342</v>
+        <v>2.659993861318689</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.893599890777234</v>
+        <v>1.831881361974232</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>7.69997274602807</v>
+        <v>7.694767291941373</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>2.136792778360825</v>
+        <v>2.398371909070164</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.239599917276033</v>
+        <v>2.413357853503294</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>8.5686308360651</v>
+        <v>8.954871984054199</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.694688180172674</v>
+        <v>6.838212636670004</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.62107883376826</v>
+        <v>7.664014832457395</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16.74189042195988</v>
+        <v>16.98044995252</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.378921737118793</v>
+        <v>9.639750378727095</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>8.071836085394006</v>
+        <v>8.077661909382725</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>15.34173435153216</v>
+        <v>15.31392560869565</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>6.903864307144533</v>
+        <v>6.889625551315193</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>6.871169785583035</v>
+        <v>6.712616158618301</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>14.51806192694756</v>
+        <v>14.65500708325458</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.3863354695027194</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8571088628548735</v>
+        <v>0.857108862854874</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.4039772229145281</v>
@@ -769,7 +769,7 @@
         <v>0.3972065225213616</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1.017938106291556</v>
+        <v>1.017938106291557</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.08289316946479902</v>
+        <v>0.07363638982776423</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.1405635487376635</v>
+        <v>0.1580125870867057</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.8557213036435877</v>
+        <v>0.8197592140600622</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.1935220919625854</v>
+        <v>0.166923857042165</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1309753384376312</v>
+        <v>0.1184464668097215</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5106803224836561</v>
+        <v>0.5323609762714642</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1667224020598563</v>
+        <v>0.1933621277962063</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.174619024315752</v>
+        <v>0.1888209813033697</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.6766565969912853</v>
+        <v>0.7213854063164558</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.011968869916145</v>
+        <v>1.023291863874507</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.180279796989531</v>
+        <v>1.156513918527594</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.414497818682787</v>
+        <v>2.473205004026682</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.8184129240121188</v>
+        <v>0.8621879581071658</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6910255359389791</v>
+        <v>0.7012602948737153</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.321256648521646</v>
+        <v>1.296366662417629</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.686837433050197</v>
+        <v>0.6869590182857607</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.6811578655325242</v>
+        <v>0.6594803720162404</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.425888245872482</v>
+        <v>1.400344645675736</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>1.449335739766265</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>6.837761686377886</v>
+        <v>6.837761686377888</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.5686009415198183</v>
+        <v>-0.6314606564661256</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.9096521151592725</v>
+        <v>-1.107747225892566</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.999781619739183</v>
+        <v>3.361470472664972</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.195525600185324</v>
+        <v>2.352459598101184</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.9130544654717637</v>
+        <v>-0.8351988167474858</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>5.137389689189621</v>
+        <v>5.018364622671101</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.734305305560701</v>
+        <v>1.844957134584684</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.1767008844325077</v>
+        <v>-0.06284687507518415</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>5.122916398950003</v>
+        <v>5.091644597867933</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.70915359854032</v>
+        <v>3.520359645501862</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.064334203755314</v>
+        <v>2.868716767803906</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.981816561724399</v>
+        <v>8.105956334097868</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.769038503330846</v>
+        <v>7.741784610644571</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.229365519561959</v>
+        <v>4.211063043226945</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>10.27477724324025</v>
+        <v>9.977903168453672</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>5.175986327735305</v>
+        <v>5.14068601573459</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.21837370211929</v>
+        <v>3.158452673874318</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>8.614820069501572</v>
+        <v>8.521670697571482</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1114850473722271</v>
+        <v>-0.1005615523045633</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1621711730906642</v>
+        <v>-0.180098399407103</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.4892285362939329</v>
+        <v>0.5412241723438025</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.2358841725059788</v>
+        <v>0.2267573930688813</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1003601471307664</v>
+        <v>-0.0816793692533216</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5508289069258469</v>
+        <v>0.5597049537763481</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2412706698794701</v>
+        <v>0.2618342431594535</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.025837087486139</v>
+        <v>-0.00826873965575501</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.7031673850476646</v>
+        <v>0.7067736472400462</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.8888713084917118</v>
+        <v>0.8515237844192665</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.7412255279273307</v>
+        <v>0.7089638791909856</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.91485781998296</v>
+        <v>1.961783263382971</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.154400435849254</v>
+        <v>1.161025025790002</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6438645652010417</v>
+        <v>0.6389858769927554</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.584047545831893</v>
+        <v>1.547583604550165</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9084253125751394</v>
+        <v>0.8889745303863392</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5709611389050864</v>
+        <v>0.5525303134131573</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.541135231795416</v>
+        <v>1.484662573858573</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>1.032332584371857</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>4.155801698834622</v>
+        <v>4.155801698834623</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.005364190980926842</v>
+        <v>0.2159803922835428</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.917824880204142</v>
+        <v>-1.910480148172137</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6004112044617667</v>
+        <v>0.4865632948486753</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.149214612989885</v>
+        <v>1.163651987465365</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1586825971833696</v>
+        <v>-0.1378656979663837</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.98369121136915</v>
+        <v>3.893449530246335</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.1834602023734</v>
+        <v>1.299983882929557</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.2975612306525225</v>
+        <v>-0.3317608215446106</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.778446028771771</v>
+        <v>2.688782371931751</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.183627001177645</v>
+        <v>4.177556247418733</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.575996588192158</v>
+        <v>1.585235790821349</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.424201322245933</v>
+        <v>4.400470441996663</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.498338216749725</v>
+        <v>5.603905167880848</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.393653788141586</v>
+        <v>4.42116867585159</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>8.025001843523768</v>
+        <v>8.016336819884282</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.183640073668506</v>
+        <v>4.195736606795371</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.516439808119324</v>
+        <v>2.578891774442133</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>5.648438401121068</v>
+        <v>5.554310677841002</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.006976829424933351</v>
+        <v>0.02705610508134587</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4069042009331305</v>
+        <v>-0.4195427707149388</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.1047745327740598</v>
+        <v>0.09747238479497443</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.2092121610001931</v>
+        <v>0.2155521817568624</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.0123676782061241</v>
+        <v>-0.03408878026464702</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7076464461596412</v>
+        <v>0.7074722767178518</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2572465390822945</v>
+        <v>0.2847195698537365</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.07225763424446935</v>
+        <v>-0.07510257765218049</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.5990386785620878</v>
+        <v>0.554742946799062</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.318196596673583</v>
+        <v>1.276521503430157</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.5297370810989096</v>
+        <v>0.525281140477397</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.490403992974073</v>
+        <v>1.40330179202791</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.645226814271246</v>
+        <v>1.672835402039731</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.261405684913256</v>
+        <v>1.271737121575035</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.465387256777999</v>
+        <v>2.395659485386739</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.187195649432078</v>
+        <v>1.211295814233609</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.7158131536269412</v>
+        <v>0.7420145052047741</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.663291305963484</v>
+        <v>1.631631973059787</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2452999649406646</v>
+        <v>0.09613704683200938</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.981298498538166</v>
+        <v>-1.704036635992214</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4.328710097720629</v>
+        <v>4.648269340919601</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.880245351649401</v>
+        <v>-2.998839597316259</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-5.304058943408233</v>
+        <v>-5.310476943227897</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.2882106651825481</v>
+        <v>-0.3922938444118255</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.04118201130207236</v>
+        <v>0.2336753493224054</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.366628401546484</v>
+        <v>-2.284418791144855</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>3.374420370905486</v>
+        <v>3.5376901779601</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.849092925834536</v>
+        <v>5.677747175418721</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.708785515424645</v>
+        <v>2.7821599378079</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9.88182792961066</v>
+        <v>9.741590271645476</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.446844745852028</v>
+        <v>5.867418079592189</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.493037681933632</v>
+        <v>2.706444064689029</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>7.107928646030118</v>
+        <v>7.110455478290017</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.822524294467915</v>
+        <v>4.829383952717062</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.103152964984746</v>
+        <v>2.108428875287822</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>7.861459434681967</v>
+        <v>8.003732806770742</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.013932050683303</v>
+        <v>-0.03518295474051545</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.4934403864064604</v>
+        <v>-0.4698388779354822</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.8501447775873792</v>
+        <v>1.014196460226696</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2723078134677083</v>
+        <v>-0.2765821979318696</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4891043485973016</v>
+        <v>-0.4831556506945669</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.02919503495286751</v>
+        <v>-0.04198325541238155</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.01592404948716767</v>
+        <v>0.01933210150797247</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3387724131741027</v>
+        <v>-0.3540470607273848</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.5042679994417989</v>
+        <v>0.5317487254225204</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>3.455817547605434</v>
+        <v>3.063376922482782</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.527320147943132</v>
+        <v>1.803873377593765</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>5.548497073475364</v>
+        <v>5.372570566608215</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.8838099356657421</v>
+        <v>0.9597686251387152</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.380961206105403</v>
+        <v>0.4536338702658984</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.145944308721962</v>
+        <v>1.205326809078364</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.077556064081472</v>
+        <v>1.123697426395761</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.5195949438060969</v>
+        <v>0.4776317322454521</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.961304666050742</v>
+        <v>1.936524520746631</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>2.45860144866763</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>5.650708600897722</v>
+        <v>5.650708600897721</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>4.891927402072345</v>
@@ -1511,7 +1511,7 @@
         <v>3.394951434071339</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>6.38868609370999</v>
+        <v>6.388686093709993</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>4.016653007113867</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.887638036906733</v>
+        <v>1.777428186383363</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>1.293167961420673</v>
+        <v>1.253986561524289</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4.242231025786714</v>
+        <v>4.35266217011401</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3.325922129560561</v>
+        <v>3.378491012852124</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>1.925520524218702</v>
+        <v>1.840645344867832</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>5.089084746777347</v>
+        <v>5.091391116289278</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>3.07796141899282</v>
+        <v>3.119907337746155</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>2.069499332603287</v>
+        <v>1.948883000349351</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>5.009094668163222</v>
+        <v>5.050419450503134</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.382187267830163</v>
+        <v>4.264591288258427</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.660474033858357</v>
+        <v>3.699473486584463</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6.907835045055513</v>
+        <v>6.962312828320673</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6.413174675098262</v>
+        <v>6.353537188982504</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>4.785509365900155</v>
+        <v>4.899433445758204</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>7.817328367659771</v>
+        <v>7.83042469143673</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>5.014205837477335</v>
+        <v>4.994249002519745</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>3.994314114376087</v>
+        <v>3.888752519461241</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>6.971508065682544</v>
+        <v>7.028116737006641</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.4967269806754209</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1.141648811571984</v>
+        <v>1.141648811571983</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.5860693943305348</v>
@@ -1616,7 +1616,7 @@
         <v>0.4067266267902693</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.7653861314299923</v>
+        <v>0.7653861314299927</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.6021840368753461</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.3469428379991365</v>
+        <v>0.3159892515418238</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.2371471194689654</v>
+        <v>0.2272352598073018</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.7450773524534093</v>
+        <v>0.7735125267143346</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.3679381409716657</v>
+        <v>0.3710922280293577</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.2151286765533726</v>
+        <v>0.1977431667365753</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.561263320883772</v>
+        <v>0.5520722091291684</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4305906710140098</v>
+        <v>0.4336994733476383</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.2868984253463177</v>
+        <v>0.2798993218974009</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.6991869438179433</v>
+        <v>0.7090254592760794</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.007452780316198</v>
+        <v>0.953195997913111</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.8110861041277291</v>
+        <v>0.8321448335658375</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.578508241654148</v>
+        <v>1.59240239063632</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.8553659455563672</v>
+        <v>0.8130960053468631</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.623769840956348</v>
+        <v>0.6249719219975549</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.02059004329142</v>
+        <v>1.009582728051824</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.8123108210515224</v>
+        <v>0.7886982901889387</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.6429359456470269</v>
+        <v>0.6247785813726123</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.117367332819524</v>
+        <v>1.13430557706922</v>
       </c>
     </row>
     <row r="34">
